--- a/TestData/Web_POS/Billing/manual_discount_test_data.xlsx
+++ b/TestData/Web_POS/Billing/manual_discount_test_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anand\PycharmProjects\Zwing QA Automation\zwing-qa-automation\TestData\POS\Billing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\Zwing_repo\zwing-qa-automation\TestData\Web_POS\Billing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -75,13 +75,13 @@
     <t>TC_01</t>
   </si>
   <si>
-    <t>307220324rGH</t>
+    <t>3072406240Vp</t>
   </si>
   <si>
     <t>zwshashank.agrawal@teampureplay.com</t>
   </si>
   <si>
-    <t>AnandArya</t>
+    <t>NewIndex</t>
   </si>
   <si>
     <t>Index9QA</t>
@@ -174,18 +174,12 @@
     <t>list : Store_Bill_Level</t>
   </si>
   <si>
-    <t>Amount : 11</t>
-  </si>
-  <si>
     <t>TC_12</t>
   </si>
   <si>
     <t>list : Date_Bill_Level</t>
   </si>
   <si>
-    <t>Amount : 12</t>
-  </si>
-  <si>
     <t>TC_13</t>
   </si>
   <si>
@@ -196,6 +190,135 @@
   </si>
   <si>
     <t>TC_15</t>
+  </si>
+  <si>
+    <t>Custom_Discount_Percentage : 10</t>
+  </si>
+  <si>
+    <t>Percentage : 10</t>
+  </si>
+  <si>
+    <t>TC_16</t>
+  </si>
+  <si>
+    <t>TC_17</t>
+  </si>
+  <si>
+    <t>TC_18</t>
+  </si>
+  <si>
+    <t>TC_19</t>
+  </si>
+  <si>
+    <t>TC_20</t>
+  </si>
+  <si>
+    <t>TC_21</t>
+  </si>
+  <si>
+    <t>TC_22</t>
+  </si>
+  <si>
+    <t>TC_23</t>
+  </si>
+  <si>
+    <t>TC_24</t>
+  </si>
+  <si>
+    <t>TC_25</t>
+  </si>
+  <si>
+    <t>TC_26</t>
+  </si>
+  <si>
+    <t>TC_27</t>
+  </si>
+  <si>
+    <t>TC_28</t>
+  </si>
+  <si>
+    <t>TC_29</t>
+  </si>
+  <si>
+    <t>TC_30</t>
+  </si>
+  <si>
+    <t>TC_31</t>
+  </si>
+  <si>
+    <t>Custom_Discount_Percentage : 51</t>
+  </si>
+  <si>
+    <t>Percentage : 51</t>
+  </si>
+  <si>
+    <t>TC_32</t>
+  </si>
+  <si>
+    <t>Custom_Discount_Amount : 600</t>
+  </si>
+  <si>
+    <t>Amount : 600</t>
+  </si>
+  <si>
+    <t>TC_33</t>
+  </si>
+  <si>
+    <t>TC_34</t>
+  </si>
+  <si>
+    <t>TC_35</t>
+  </si>
+  <si>
+    <t>TC_36</t>
+  </si>
+  <si>
+    <t>TC_37</t>
+  </si>
+  <si>
+    <t>TC_38</t>
+  </si>
+  <si>
+    <t>TC_39</t>
+  </si>
+  <si>
+    <t>TC_40</t>
+  </si>
+  <si>
+    <t>Custom_Discount_Percentage : 40</t>
+  </si>
+  <si>
+    <t>Percentage : 40</t>
+  </si>
+  <si>
+    <t>TC_41</t>
+  </si>
+  <si>
+    <t>Custom_Discount_Amount : 801</t>
+  </si>
+  <si>
+    <t>Amount : 801</t>
+  </si>
+  <si>
+    <t>TC_42</t>
+  </si>
+  <si>
+    <t>Custom_Discount_Amount : 60</t>
+  </si>
+  <si>
+    <t>Amount : 60</t>
+  </si>
+  <si>
+    <t>TC_43</t>
+  </si>
+  <si>
+    <t>TC_44</t>
+  </si>
+  <si>
+    <t>TC_45</t>
+  </si>
+  <si>
+    <t>TC_46</t>
   </si>
 </sst>
 </file>
@@ -243,25 +366,8 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border/>
-    <border>
-      <left>
-        <color indexed="64"/>
-      </left>
-      <right>
-        <color indexed="64"/>
-      </right>
-      <top>
-        <color indexed="64"/>
-      </top>
-      <bottom>
-        <color indexed="64"/>
-      </bottom>
-      <diagonal>
-        <color indexed="64"/>
-      </diagonal>
-    </border>
     <border>
       <right style="medium">
         <color rgb="FF2B579A"/>
@@ -274,16 +380,15 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -508,8 +613,8 @@
     <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="I4">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="K25">
+      <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
@@ -601,7 +706,7 @@
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -631,16 +736,16 @@
       <c r="K2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="4">
-        <v>45384</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="4" t="s">
+      <c r="L2" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -654,7 +759,7 @@
       <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -684,16 +789,16 @@
       <c r="K3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="4">
-        <v>45384</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="4" t="s">
+      <c r="L3" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="P3" s="1" t="s">
@@ -707,7 +812,7 @@
       <c r="A4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -737,16 +842,16 @@
       <c r="K4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="4">
-        <v>45384</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="4" t="s">
+      <c r="L4" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="P4" s="1" t="s">
@@ -760,7 +865,7 @@
       <c r="A5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -790,16 +895,16 @@
       <c r="K5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="4">
-        <v>45384</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="4" t="s">
+      <c r="L5" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="P5" s="1" t="s">
@@ -813,7 +918,7 @@
       <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -843,16 +948,16 @@
       <c r="K6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="4">
-        <v>45384</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" s="4" t="s">
+      <c r="L6" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="P6" s="1" t="s">
@@ -866,7 +971,7 @@
       <c r="A7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -896,16 +1001,16 @@
       <c r="K7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="4">
-        <v>45384</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" s="4" t="s">
+      <c r="L7" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="P7" s="1" t="s">
@@ -919,7 +1024,7 @@
       <c r="A8" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -949,16 +1054,16 @@
       <c r="K8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="4">
-        <v>45384</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8" s="4" t="s">
+      <c r="L8" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="P8" s="1" t="s">
@@ -972,7 +1077,7 @@
       <c r="A9" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1002,16 +1107,16 @@
       <c r="K9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="4">
-        <v>45384</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9" s="4" t="s">
+      <c r="L9" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="P9" s="1" t="s">
@@ -1025,7 +1130,7 @@
       <c r="A10" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1055,16 +1160,16 @@
       <c r="K10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="4">
-        <v>45384</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O10" s="4" t="s">
+      <c r="L10" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="P10" s="1" t="s">
@@ -1078,7 +1183,7 @@
       <c r="A11" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1108,16 +1213,16 @@
       <c r="K11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="4">
-        <v>45384</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O11" s="4" t="s">
+      <c r="L11" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="P11" s="1" t="s">
@@ -1131,7 +1236,7 @@
       <c r="A12" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1161,79 +1266,83 @@
       <c r="K12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="4">
-        <v>45384</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O12" s="4"/>
+      <c r="L12" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="P12" s="1" t="s">
         <v>50</v>
       </c>
       <c r="Q12" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G13">
+        <v>1000</v>
+      </c>
+      <c r="H13">
+        <v>600</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G13">
-        <v>1000</v>
-      </c>
-      <c r="H13">
-        <v>600</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" s="4">
-        <v>45384</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="Q13" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1263,18 +1372,20 @@
       <c r="K14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="4">
-        <v>45384</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O14" s="4"/>
+      <c r="L14" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="P14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q14" t="s">
         <v>28</v>
@@ -1282,9 +1393,9 @@
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1314,686 +1425,1945 @@
       <c r="K15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="4">
-        <v>45384</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="1"/>
+      <c r="L15" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G16">
+        <v>1000</v>
+      </c>
+      <c r="H16">
+        <v>600</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q16" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G16">
-        <v>1000</v>
-      </c>
-      <c r="H16">
-        <v>600</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L16" s="4">
-        <v>45384</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="1"/>
     </row>
     <row r="17" ht="14.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="I17" s="1"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="1"/>
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G17">
+        <v>1000</v>
+      </c>
+      <c r="H17">
+        <v>600</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="18" ht="14.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="I18" s="1"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="1"/>
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G18">
+        <v>1000</v>
+      </c>
+      <c r="H18">
+        <v>600</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="19" ht="14.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="I19" s="1"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="1"/>
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G19">
+        <v>1000</v>
+      </c>
+      <c r="H19">
+        <v>600</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P19" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20" ht="14.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="I20" s="1"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="1"/>
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G20">
+        <v>1000</v>
+      </c>
+      <c r="H20">
+        <v>600</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="21" ht="14.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="I21" s="1"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="1"/>
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G21">
+        <v>1000</v>
+      </c>
+      <c r="H21">
+        <v>600</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="22" ht="14.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="I22" s="1"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="1"/>
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G22">
+        <v>1000</v>
+      </c>
+      <c r="H22">
+        <v>600</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="23" ht="14.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="I23" s="1"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="1"/>
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G23">
+        <v>1000</v>
+      </c>
+      <c r="H23">
+        <v>600</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="24" ht="14.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="I24" s="1"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="6"/>
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G24">
+        <v>1000</v>
+      </c>
+      <c r="H24">
+        <v>600</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>28</v>
+      </c>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="5"/>
     </row>
     <row r="25" ht="14.25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="I25" s="1"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="1"/>
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G25">
+        <v>1000</v>
+      </c>
+      <c r="H25">
+        <v>600</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="26" ht="14.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="I26" s="1"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="1"/>
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G26">
+        <v>1000</v>
+      </c>
+      <c r="H26">
+        <v>600</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="27" ht="14.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="I27" s="1"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="1"/>
+      <c r="A27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G27">
+        <v>1000</v>
+      </c>
+      <c r="H27">
+        <v>600</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="28" ht="14.25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="I28" s="1"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="1"/>
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G28">
+        <v>1000</v>
+      </c>
+      <c r="H28">
+        <v>600</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="29" ht="14.25">
-      <c r="B29" s="3"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="I29" s="1"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="1"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="6"/>
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G29">
+        <v>1000</v>
+      </c>
+      <c r="H29">
+        <v>600</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P29" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>23</v>
+      </c>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="5"/>
     </row>
     <row r="30" ht="14.25">
-      <c r="B30" s="3"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="I30" s="1"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="1"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="6"/>
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G30">
+        <v>1000</v>
+      </c>
+      <c r="H30">
+        <v>600</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P30" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>23</v>
+      </c>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="5"/>
     </row>
     <row r="31" ht="14.25">
-      <c r="B31" s="3"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="I31" s="1"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="1"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="6"/>
+      <c r="A31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G31">
+        <v>1000</v>
+      </c>
+      <c r="H31">
+        <v>600</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P31" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>23</v>
+      </c>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="5"/>
     </row>
     <row r="32" ht="14.25">
-      <c r="B32" s="3"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="I32" s="1"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="1"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="6"/>
+      <c r="A32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G32">
+        <v>1000</v>
+      </c>
+      <c r="H32">
+        <v>600</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L32" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P32" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>76</v>
+      </c>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="5"/>
     </row>
     <row r="33" ht="14.25">
-      <c r="B33" s="3"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="I33" s="1"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="1"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="6"/>
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G33">
+        <v>1000</v>
+      </c>
+      <c r="H33">
+        <v>600</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P33" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>79</v>
+      </c>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="5"/>
     </row>
     <row r="34" ht="14.25">
-      <c r="B34" s="3"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="I34" s="1"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="1"/>
+      <c r="A34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G34">
+        <v>1000</v>
+      </c>
+      <c r="H34">
+        <v>600</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P34" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>23</v>
+      </c>
       <c r="W34" s="1"/>
     </row>
     <row r="35" ht="14.25">
-      <c r="B35" s="3"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="I35" s="1"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="1"/>
+      <c r="A35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G35">
+        <v>1000</v>
+      </c>
+      <c r="H35">
+        <v>600</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P35" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>23</v>
+      </c>
       <c r="W35" s="1"/>
     </row>
     <row r="36" ht="14.25">
-      <c r="B36" s="3"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="I36" s="1"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="6"/>
+      <c r="A36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G36">
+        <v>1000</v>
+      </c>
+      <c r="H36">
+        <v>600</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>23</v>
+      </c>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="5"/>
     </row>
     <row r="37" ht="14.25">
-      <c r="B37" s="3"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="I37" s="1"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="1"/>
+      <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G37">
+        <v>1000</v>
+      </c>
+      <c r="H37">
+        <v>600</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L37" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P37" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="38" ht="14.25">
-      <c r="B38" s="3"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="I38" s="1"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="1"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="6"/>
+      <c r="A38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G38">
+        <v>1000</v>
+      </c>
+      <c r="H38">
+        <v>600</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P38" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>23</v>
+      </c>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="5"/>
     </row>
     <row r="39" ht="14.25">
-      <c r="B39" s="3"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="I39" s="1"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="1"/>
+      <c r="A39" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G39">
+        <v>1000</v>
+      </c>
+      <c r="H39">
+        <v>600</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P39" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="40" ht="14.25">
-      <c r="B40" s="3"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="I40" s="1"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="1"/>
+      <c r="A40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G40">
+        <v>1000</v>
+      </c>
+      <c r="H40">
+        <v>600</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L40" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P40" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="41" ht="14.25">
-      <c r="B41" s="3"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="I41" s="1"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="1"/>
+      <c r="A41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G41">
+        <v>1000</v>
+      </c>
+      <c r="H41">
+        <v>600</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L41" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P41" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="42" ht="14.25">
-      <c r="B42" s="3"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="I42" s="1"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="1"/>
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G42">
+        <v>1000</v>
+      </c>
+      <c r="H42">
+        <v>600</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L42" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P42" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="43" ht="14.25">
-      <c r="B43" s="3"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="I43" s="1"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="1"/>
+      <c r="A43" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G43">
+        <v>1000</v>
+      </c>
+      <c r="H43">
+        <v>600</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L43" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P43" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="44" ht="14.25">
-      <c r="B44" s="3"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="I44" s="1"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
+      <c r="A44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G44">
+        <v>1000</v>
+      </c>
+      <c r="H44">
+        <v>600</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L44" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P44" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="45" ht="14.25">
-      <c r="B45" s="3"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="I45" s="1"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
+      <c r="A45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G45">
+        <v>1000</v>
+      </c>
+      <c r="H45">
+        <v>600</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L45" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P45" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="46" ht="14.25">
-      <c r="B46" s="3"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="I46" s="1"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G46">
+        <v>1000</v>
+      </c>
+      <c r="H46">
+        <v>600</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L46" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P46" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="47" ht="14.25">
-      <c r="B47" s="3"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="I47" s="1"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
+      <c r="A47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G47">
+        <v>1000</v>
+      </c>
+      <c r="H47">
+        <v>600</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L47" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P47" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="48" ht="14.25">
-      <c r="B48" s="3"/>
+      <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="I48" s="1"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
     </row>
     <row r="49" ht="14.25">
-      <c r="B49" s="3"/>
+      <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="I49" s="1"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
     </row>
     <row r="50" ht="14.25">
-      <c r="B50" s="3"/>
+      <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="I50" s="1"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
     </row>
     <row r="51" ht="14.25">
-      <c r="B51" s="3"/>
+      <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="I51" s="1"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
     </row>
     <row r="52" ht="14.25">
-      <c r="B52" s="3"/>
+      <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="I52" s="1"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
     </row>
     <row r="53" ht="14.25">
-      <c r="B53" s="3"/>
+      <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="I53" s="1"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
     </row>
     <row r="54" ht="14.25">
-      <c r="B54" s="3"/>
+      <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="I54" s="1"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
     </row>
     <row r="55" ht="14.25">
-      <c r="B55" s="3"/>
+      <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="I55" s="1"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
     </row>
     <row r="56" ht="14.25">
-      <c r="B56" s="3"/>
+      <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="I56" s="1"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
     </row>
     <row r="57" ht="14.25">
-      <c r="B57" s="3"/>
+      <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="I57" s="1"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
     </row>
     <row r="58" ht="14.25">
-      <c r="B58" s="3"/>
+      <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="I58" s="1"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
     </row>
     <row r="59" ht="14.25">
-      <c r="B59" s="3"/>
+      <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="I59" s="1"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
     </row>
     <row r="60" ht="14.25">
-      <c r="B60" s="3"/>
+      <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="I60" s="1"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
     </row>
     <row r="61" ht="14.25">
-      <c r="B61" s="3"/>
+      <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="I61" s="1"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
     </row>
     <row r="62" ht="14.25">
-      <c r="B62" s="3"/>
+      <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="I62" s="1"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
     </row>
     <row r="63" ht="14.25">
-      <c r="B63" s="3"/>
+      <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="I63" s="1"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="J64"/>

--- a/TestData/Web_POS/Billing/manual_discount_test_data.xlsx
+++ b/TestData/Web_POS/Billing/manual_discount_test_data.xlsx
@@ -75,13 +75,13 @@
     <t>TC_01</t>
   </si>
   <si>
-    <t>3072406240Vp</t>
+    <t>307260624WoJ</t>
   </si>
   <si>
     <t>zwshashank.agrawal@teampureplay.com</t>
   </si>
   <si>
-    <t>NewIndex</t>
+    <t>usertwo_p1</t>
   </si>
   <si>
     <t>Index9QA</t>
@@ -120,6 +120,9 @@
     <t>list : Percentage_Item</t>
   </si>
   <si>
+    <t>Percentage : 10</t>
+  </si>
+  <si>
     <t>TC_04</t>
   </si>
   <si>
@@ -195,9 +198,6 @@
     <t>Custom_Discount_Percentage : 10</t>
   </si>
   <si>
-    <t>Percentage : 10</t>
-  </si>
-  <si>
     <t>TC_16</t>
   </si>
   <si>
@@ -228,15 +228,36 @@
     <t>TC_25</t>
   </si>
   <si>
+    <t>307260624ut0</t>
+  </si>
+  <si>
+    <t>usertwo_p2</t>
+  </si>
+  <si>
     <t>TC_26</t>
   </si>
   <si>
+    <t>userone_p1</t>
+  </si>
+  <si>
     <t>TC_27</t>
   </si>
   <si>
+    <t>307260624PTe</t>
+  </si>
+  <si>
+    <t>userone_p4</t>
+  </si>
+  <si>
     <t>TC_28</t>
   </si>
   <si>
+    <t>307260624uOm</t>
+  </si>
+  <si>
+    <t>userone_p5</t>
+  </si>
+  <si>
     <t>TC_29</t>
   </si>
   <si>
@@ -264,15 +285,30 @@
     <t>TC_33</t>
   </si>
   <si>
+    <t>userone_p2</t>
+  </si>
+  <si>
     <t>TC_34</t>
   </si>
   <si>
     <t>TC_35</t>
   </si>
   <si>
+    <t>307260624SF2</t>
+  </si>
+  <si>
+    <t>userone_p6</t>
+  </si>
+  <si>
     <t>TC_36</t>
   </si>
   <si>
+    <t>307260624cuS</t>
+  </si>
+  <si>
+    <t>userone_p7</t>
+  </si>
+  <si>
     <t>TC_37</t>
   </si>
   <si>
@@ -316,6 +352,12 @@
   </si>
   <si>
     <t>TC_45</t>
+  </si>
+  <si>
+    <t>3072606245nJ</t>
+  </si>
+  <si>
+    <t>userone_p3</t>
   </si>
   <si>
     <t>TC_46</t>
@@ -613,8 +655,8 @@
     <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="K25">
-      <selection activeCell="S37" sqref="S37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
@@ -858,12 +900,12 @@
         <v>32</v>
       </c>
       <c r="Q4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>18</v>
@@ -908,15 +950,15 @@
         <v>26</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" ht="26.25" customHeight="1">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
@@ -961,7 +1003,7 @@
         <v>26</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" t="s">
         <v>28</v>
@@ -969,7 +1011,7 @@
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>18</v>
@@ -1014,15 +1056,15 @@
         <v>26</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" ht="31.5" customHeight="1">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
@@ -1067,7 +1109,7 @@
         <v>26</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q8" t="s">
         <v>28</v>
@@ -1075,7 +1117,7 @@
     </row>
     <row r="9" ht="32.25" customHeight="1">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>18</v>
@@ -1120,15 +1162,15 @@
         <v>26</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" ht="28.5" customHeight="1">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>18</v>
@@ -1173,7 +1215,7 @@
         <v>26</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q10" t="s">
         <v>28</v>
@@ -1181,7 +1223,7 @@
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>18</v>
@@ -1226,7 +1268,7 @@
         <v>26</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q11" t="s">
         <v>28</v>
@@ -1234,7 +1276,7 @@
     </row>
     <row r="12" ht="14.25">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>18</v>
@@ -1279,7 +1321,7 @@
         <v>26</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q12" t="s">
         <v>28</v>
@@ -1287,7 +1329,7 @@
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>18</v>
@@ -1332,7 +1374,7 @@
         <v>26</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q13" t="s">
         <v>28</v>
@@ -1340,7 +1382,7 @@
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>18</v>
@@ -1385,7 +1427,7 @@
         <v>26</v>
       </c>
       <c r="P14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q14" t="s">
         <v>28</v>
@@ -1393,7 +1435,7 @@
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>18</v>
@@ -1438,7 +1480,7 @@
         <v>26</v>
       </c>
       <c r="P15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q15" t="s">
         <v>28</v>
@@ -1446,7 +1488,7 @@
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>18</v>
@@ -1491,10 +1533,10 @@
         <v>26</v>
       </c>
       <c r="P16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q16" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" ht="14.25">
@@ -1544,7 +1586,7 @@
         <v>26</v>
       </c>
       <c r="P17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q17" t="s">
         <v>28</v>
@@ -1597,7 +1639,7 @@
         <v>26</v>
       </c>
       <c r="P18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q18" t="s">
         <v>28</v>
@@ -1650,10 +1692,10 @@
         <v>26</v>
       </c>
       <c r="P19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q19" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" ht="14.25">
@@ -1862,10 +1904,10 @@
         <v>26</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" ht="14.25">
@@ -1915,7 +1957,7 @@
         <v>26</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q24" t="s">
         <v>28</v>
@@ -1972,10 +2014,10 @@
         <v>26</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" ht="14.25">
@@ -1983,7 +2025,7 @@
         <v>68</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>19</v>
@@ -1992,7 +2034,7 @@
         <v>123456</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="F26" s="2">
         <v>123456</v>
@@ -2033,7 +2075,7 @@
     </row>
     <row r="27" ht="14.25">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>18</v>
@@ -2045,7 +2087,7 @@
         <v>123456</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="F27" s="2">
         <v>123456</v>
@@ -2086,10 +2128,10 @@
     </row>
     <row r="28" ht="14.25">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>19</v>
@@ -2098,7 +2140,7 @@
         <v>123456</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="F28" s="2">
         <v>123456</v>
@@ -2139,10 +2181,10 @@
     </row>
     <row r="29" ht="14.25">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>19</v>
@@ -2151,7 +2193,7 @@
         <v>123456</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="F29" s="2">
         <v>123456</v>
@@ -2196,10 +2238,10 @@
     </row>
     <row r="30" ht="14.25">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>19</v>
@@ -2208,7 +2250,7 @@
         <v>123456</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="F30" s="2">
         <v>123456</v>
@@ -2253,10 +2295,10 @@
     </row>
     <row r="31" ht="14.25">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>19</v>
@@ -2265,7 +2307,7 @@
         <v>123456</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="F31" s="2">
         <v>123456</v>
@@ -2310,11 +2352,11 @@
     </row>
     <row r="32" ht="14.25">
       <c r="A32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C32" s="2" t="s">
         <v>19</v>
       </c>
@@ -2322,7 +2364,7 @@
         <v>123456</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="F32" s="2">
         <v>123456</v>
@@ -2355,10 +2397,10 @@
         <v>26</v>
       </c>
       <c r="P32" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="Q32" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
@@ -2367,10 +2409,10 @@
     </row>
     <row r="33" ht="14.25">
       <c r="A33" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>19</v>
@@ -2379,7 +2421,7 @@
         <v>123456</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="F33" s="2">
         <v>123456</v>
@@ -2412,10 +2454,10 @@
         <v>26</v>
       </c>
       <c r="P33" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="Q33" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
@@ -2424,10 +2466,10 @@
     </row>
     <row r="34" ht="14.25">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>19</v>
@@ -2436,7 +2478,7 @@
         <v>123456</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="F34" s="2">
         <v>123456</v>
@@ -2478,7 +2520,7 @@
     </row>
     <row r="35" ht="14.25">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>18</v>
@@ -2532,10 +2574,10 @@
     </row>
     <row r="36" ht="14.25">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>19</v>
@@ -2544,7 +2586,7 @@
         <v>123456</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="F36" s="2">
         <v>123456</v>
@@ -2588,10 +2630,10 @@
     </row>
     <row r="37" ht="14.25">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>19</v>
@@ -2600,7 +2642,7 @@
         <v>123456</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="F37" s="2">
         <v>123456</v>
@@ -2641,10 +2683,10 @@
     </row>
     <row r="38" ht="14.25">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>19</v>
@@ -2653,7 +2695,7 @@
         <v>123456</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="F38" s="2">
         <v>123456</v>
@@ -2698,10 +2740,10 @@
     </row>
     <row r="39" ht="14.25">
       <c r="A39" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>19</v>
@@ -2710,7 +2752,7 @@
         <v>123456</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="F39" s="2">
         <v>123456</v>
@@ -2751,10 +2793,10 @@
     </row>
     <row r="40" ht="14.25">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>19</v>
@@ -2763,7 +2805,7 @@
         <v>123456</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="F40" s="2">
         <v>123456</v>
@@ -2796,18 +2838,18 @@
         <v>26</v>
       </c>
       <c r="P40" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="Q40" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" ht="14.25">
       <c r="A41" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>19</v>
@@ -2816,7 +2858,7 @@
         <v>123456</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="F41" s="2">
         <v>123456</v>
@@ -2849,15 +2891,15 @@
         <v>26</v>
       </c>
       <c r="P41" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="Q41" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" ht="14.25">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>18</v>
@@ -2902,15 +2944,15 @@
         <v>26</v>
       </c>
       <c r="P42" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="Q42" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" ht="14.25">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>18</v>
@@ -2955,15 +2997,15 @@
         <v>26</v>
       </c>
       <c r="P43" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="Q43" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" ht="14.25">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>18</v>
@@ -3016,7 +3058,7 @@
     </row>
     <row r="45" ht="14.25">
       <c r="A45" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>18</v>
@@ -3069,10 +3111,10 @@
     </row>
     <row r="46" ht="14.25">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>19</v>
@@ -3081,7 +3123,7 @@
         <v>123456</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="F46" s="2">
         <v>123456</v>
@@ -3122,10 +3164,10 @@
     </row>
     <row r="47" ht="14.25">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>19</v>
@@ -3134,7 +3176,7 @@
         <v>123456</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="F47" s="2">
         <v>123456</v>

--- a/TestData/Web_POS/Billing/manual_discount_test_data.xlsx
+++ b/TestData/Web_POS/Billing/manual_discount_test_data.xlsx
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>discount_value</t>
+  </si>
+  <si>
+    <t>tax_invoice</t>
   </si>
   <si>
     <t>TC_01</t>
@@ -655,8 +658,8 @@
     <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="K1">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
@@ -743,22 +746,25 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" ht="33.75" customHeight="1">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2">
         <v>123456</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2">
         <v>123456</v>
@@ -770,48 +776,48 @@
         <v>500</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" s="3">
         <v>45384</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2">
         <v>123456</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2">
         <v>123456</v>
@@ -823,48 +829,48 @@
         <v>500</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L3" s="3">
         <v>45384</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" ht="31.5" customHeight="1">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2">
         <v>123456</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2">
         <v>123456</v>
@@ -876,48 +882,48 @@
         <v>300</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L4" s="3">
         <v>45384</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2">
         <v>123456</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2">
         <v>123456</v>
@@ -929,48 +935,48 @@
         <v>400</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L5" s="3">
         <v>45384</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" ht="26.25" customHeight="1">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2">
         <v>123456</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2">
         <v>123456</v>
@@ -982,48 +988,48 @@
         <v>800</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L6" s="3">
         <v>45384</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2">
         <v>123456</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2">
         <v>123456</v>
@@ -1035,48 +1041,48 @@
         <v>600</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L7" s="3">
         <v>45384</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" ht="31.5" customHeight="1">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2">
         <v>123456</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2">
         <v>123456</v>
@@ -1088,48 +1094,48 @@
         <v>600</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L8" s="3">
         <v>45384</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" ht="32.25" customHeight="1">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2">
         <v>123456</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2">
         <v>123456</v>
@@ -1141,48 +1147,48 @@
         <v>600</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L9" s="3">
         <v>45384</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" ht="28.5" customHeight="1">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2">
         <v>123456</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F10" s="2">
         <v>123456</v>
@@ -1194,48 +1200,48 @@
         <v>600</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L10" s="3">
         <v>45384</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2">
         <v>123456</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11" s="2">
         <v>123456</v>
@@ -1247,48 +1253,48 @@
         <v>600</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L11" s="3">
         <v>45384</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2">
         <v>123456</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" s="2">
         <v>123456</v>
@@ -1300,48 +1306,48 @@
         <v>600</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L12" s="3">
         <v>45384</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2">
         <v>123456</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13" s="2">
         <v>123456</v>
@@ -1353,48 +1359,48 @@
         <v>600</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L13" s="3">
         <v>45384</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2">
         <v>123456</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14" s="2">
         <v>123456</v>
@@ -1406,101 +1412,101 @@
         <v>600</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L14" s="3">
         <v>45384</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G15">
+        <v>1000</v>
+      </c>
+      <c r="H15">
+        <v>600</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="3">
+        <v>45384</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G15">
-        <v>1000</v>
-      </c>
-      <c r="H15">
-        <v>600</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" s="3">
-        <v>45384</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P15" t="s">
-        <v>55</v>
-      </c>
       <c r="Q15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" s="2">
         <v>123456</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F16" s="2">
         <v>123456</v>
@@ -1512,48 +1518,48 @@
         <v>600</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L16" s="3">
         <v>45384</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" s="2">
         <v>123456</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F17" s="2">
         <v>123456</v>
@@ -1565,48 +1571,48 @@
         <v>600</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L17" s="3">
         <v>45384</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" s="2">
         <v>123456</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F18" s="2">
         <v>123456</v>
@@ -1618,48 +1624,48 @@
         <v>600</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L18" s="3">
         <v>45384</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" s="2">
         <v>123456</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F19" s="2">
         <v>123456</v>
@@ -1671,48 +1677,48 @@
         <v>600</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L19" s="3">
         <v>45384</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" s="2">
         <v>123456</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F20" s="2">
         <v>123456</v>
@@ -1724,48 +1730,48 @@
         <v>600</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L20" s="3">
         <v>45384</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" ht="14.25">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" s="2">
         <v>123456</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F21" s="2">
         <v>123456</v>
@@ -1777,48 +1783,48 @@
         <v>600</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L21" s="3">
         <v>45384</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="14.25">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22" s="2">
         <v>123456</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F22" s="2">
         <v>123456</v>
@@ -1830,48 +1836,48 @@
         <v>600</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L22" s="3">
         <v>45384</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" ht="14.25">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D23" s="2">
         <v>123456</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F23" s="2">
         <v>123456</v>
@@ -1883,48 +1889,48 @@
         <v>600</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L23" s="3">
         <v>45384</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" ht="14.25">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D24" s="2">
         <v>123456</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F24" s="2">
         <v>123456</v>
@@ -1936,31 +1942,31 @@
         <v>600</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L24" s="3">
         <v>45384</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
@@ -1969,19 +1975,19 @@
     </row>
     <row r="25" ht="14.25">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D25" s="2">
         <v>123456</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F25" s="2">
         <v>123456</v>
@@ -1993,48 +1999,48 @@
         <v>600</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L25" s="3">
         <v>45384</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" ht="14.25">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D26" s="2">
         <v>123456</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F26" s="2">
         <v>123456</v>
@@ -2046,48 +2052,48 @@
         <v>600</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L26" s="3">
         <v>45384</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="14.25">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D27" s="2">
         <v>123456</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F27" s="2">
         <v>123456</v>
@@ -2099,48 +2105,48 @@
         <v>600</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L27" s="3">
         <v>45384</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="14.25">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D28" s="2">
         <v>123456</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F28" s="2">
         <v>123456</v>
@@ -2152,48 +2158,48 @@
         <v>600</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L28" s="3">
         <v>45384</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="14.25">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D29" s="2">
         <v>123456</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F29" s="2">
         <v>123456</v>
@@ -2205,31 +2211,31 @@
         <v>600</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L29" s="3">
         <v>45384</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
@@ -2238,19 +2244,19 @@
     </row>
     <row r="30" ht="14.25">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D30" s="2">
         <v>123456</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F30" s="2">
         <v>123456</v>
@@ -2262,31 +2268,31 @@
         <v>600</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L30" s="3">
         <v>45384</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
@@ -2295,19 +2301,19 @@
     </row>
     <row r="31" ht="14.25">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D31" s="2">
         <v>123456</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F31" s="2">
         <v>123456</v>
@@ -2319,31 +2325,31 @@
         <v>600</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L31" s="3">
         <v>45384</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
@@ -2352,19 +2358,19 @@
     </row>
     <row r="32" ht="14.25">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D32" s="2">
         <v>123456</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F32" s="2">
         <v>123456</v>
@@ -2376,31 +2382,31 @@
         <v>600</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L32" s="3">
         <v>45384</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
@@ -2409,19 +2415,19 @@
     </row>
     <row r="33" ht="14.25">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D33" s="2">
         <v>123456</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F33" s="2">
         <v>123456</v>
@@ -2433,31 +2439,31 @@
         <v>600</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L33" s="3">
         <v>45384</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
@@ -2466,19 +2472,19 @@
     </row>
     <row r="34" ht="14.25">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D34" s="2">
         <v>123456</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F34" s="2">
         <v>123456</v>
@@ -2490,49 +2496,49 @@
         <v>600</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L34" s="3">
         <v>45384</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W34" s="1"/>
     </row>
     <row r="35" ht="14.25">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D35" s="2">
         <v>123456</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F35" s="2">
         <v>123456</v>
@@ -2544,49 +2550,49 @@
         <v>600</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L35" s="3">
         <v>45384</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W35" s="1"/>
     </row>
     <row r="36" ht="14.25">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D36" s="2">
         <v>123456</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F36" s="2">
         <v>123456</v>
@@ -2598,31 +2604,31 @@
         <v>600</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L36" s="3">
         <v>45384</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
@@ -2630,19 +2636,19 @@
     </row>
     <row r="37" ht="14.25">
       <c r="A37" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D37" s="2">
         <v>123456</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F37" s="2">
         <v>123456</v>
@@ -2654,48 +2660,48 @@
         <v>600</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L37" s="3">
         <v>45384</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" ht="14.25">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D38" s="2">
         <v>123456</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F38" s="2">
         <v>123456</v>
@@ -2707,31 +2713,31 @@
         <v>600</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L38" s="3">
         <v>45384</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
@@ -2740,19 +2746,19 @@
     </row>
     <row r="39" ht="14.25">
       <c r="A39" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D39" s="2">
         <v>123456</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F39" s="2">
         <v>123456</v>
@@ -2764,48 +2770,48 @@
         <v>600</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L39" s="3">
         <v>45384</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P39" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q39" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" ht="14.25">
       <c r="A40" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D40" s="2">
         <v>123456</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F40" s="2">
         <v>123456</v>
@@ -2817,48 +2823,48 @@
         <v>600</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L40" s="3">
         <v>45384</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" ht="14.25">
       <c r="A41" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D41" s="2">
         <v>123456</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F41" s="2">
         <v>123456</v>
@@ -2870,48 +2876,48 @@
         <v>600</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L41" s="3">
         <v>45384</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P41" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" ht="14.25">
       <c r="A42" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D42" s="2">
         <v>123456</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F42" s="2">
         <v>123456</v>
@@ -2923,48 +2929,48 @@
         <v>600</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L42" s="3">
         <v>45384</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P42" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q42" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" ht="14.25">
       <c r="A43" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D43" s="2">
         <v>123456</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F43" s="2">
         <v>123456</v>
@@ -2976,48 +2982,48 @@
         <v>600</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L43" s="3">
         <v>45384</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P43" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q43" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" ht="14.25">
       <c r="A44" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D44" s="2">
         <v>123456</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F44" s="2">
         <v>123456</v>
@@ -3029,48 +3035,48 @@
         <v>600</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L44" s="3">
         <v>45384</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P44" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q44" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" ht="14.25">
       <c r="A45" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D45" s="2">
         <v>123456</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F45" s="2">
         <v>123456</v>
@@ -3082,48 +3088,48 @@
         <v>600</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L45" s="3">
         <v>45384</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P45" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q45" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" ht="14.25">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D46" s="2">
         <v>123456</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F46" s="2">
         <v>123456</v>
@@ -3135,49 +3141,49 @@
         <v>600</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L46" s="3">
         <v>45384</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P46" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q46" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" ht="14.25">
       <c r="A47" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F47" s="2">
         <v>123456</v>
       </c>
@@ -3188,31 +3194,31 @@
         <v>600</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L47" s="3">
         <v>45384</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" ht="14.25">

--- a/TestData/Web_POS/Billing/manual_discount_test_data.xlsx
+++ b/TestData/Web_POS/Billing/manual_discount_test_data.xlsx
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>list : Percentage_Bill_Level</t>
+  </si>
+  <si>
+    <t>Percentege : 10</t>
   </si>
   <si>
     <t>TC_10</t>
@@ -659,7 +662,7 @@
   </sheetPr>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="K1">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
@@ -1224,12 +1227,12 @@
         <v>48</v>
       </c>
       <c r="Q10" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>19</v>
@@ -1274,7 +1277,7 @@
         <v>27</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q11" t="s">
         <v>29</v>
@@ -1282,7 +1285,7 @@
     </row>
     <row r="12" ht="14.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>19</v>
@@ -1327,7 +1330,7 @@
         <v>27</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q12" t="s">
         <v>29</v>
@@ -1335,7 +1338,7 @@
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>19</v>
@@ -1380,7 +1383,7 @@
         <v>27</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q13" t="s">
         <v>29</v>
@@ -1388,7 +1391,7 @@
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>19</v>
@@ -1433,7 +1436,7 @@
         <v>27</v>
       </c>
       <c r="P14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q14" t="s">
         <v>29</v>
@@ -1441,7 +1444,7 @@
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>19</v>
@@ -1486,7 +1489,7 @@
         <v>27</v>
       </c>
       <c r="P15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q15" t="s">
         <v>29</v>
@@ -1494,7 +1497,7 @@
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>19</v>
@@ -1539,7 +1542,7 @@
         <v>27</v>
       </c>
       <c r="P16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q16" t="s">
         <v>34</v>
@@ -1547,7 +1550,7 @@
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>19</v>
@@ -1592,7 +1595,7 @@
         <v>27</v>
       </c>
       <c r="P17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q17" t="s">
         <v>29</v>
@@ -1600,7 +1603,7 @@
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>19</v>
@@ -1645,7 +1648,7 @@
         <v>27</v>
       </c>
       <c r="P18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q18" t="s">
         <v>29</v>
@@ -1653,7 +1656,7 @@
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>19</v>
@@ -1698,7 +1701,7 @@
         <v>27</v>
       </c>
       <c r="P19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q19" t="s">
         <v>34</v>
@@ -1706,7 +1709,7 @@
     </row>
     <row r="20" ht="14.25">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>19</v>
@@ -1759,7 +1762,7 @@
     </row>
     <row r="21" ht="14.25">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>19</v>
@@ -1812,7 +1815,7 @@
     </row>
     <row r="22" ht="14.25">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>19</v>
@@ -1865,7 +1868,7 @@
     </row>
     <row r="23" ht="14.25">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>19</v>
@@ -1918,7 +1921,7 @@
     </row>
     <row r="24" ht="14.25">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>19</v>
@@ -1975,7 +1978,7 @@
     </row>
     <row r="25" ht="14.25">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>19</v>
@@ -2028,10 +2031,10 @@
     </row>
     <row r="26" ht="14.25">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>20</v>
@@ -2040,7 +2043,7 @@
         <v>123456</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F26" s="2">
         <v>123456</v>
@@ -2081,7 +2084,7 @@
     </row>
     <row r="27" ht="14.25">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>19</v>
@@ -2093,7 +2096,7 @@
         <v>123456</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F27" s="2">
         <v>123456</v>
@@ -2134,10 +2137,10 @@
     </row>
     <row r="28" ht="14.25">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>20</v>
@@ -2146,7 +2149,7 @@
         <v>123456</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F28" s="2">
         <v>123456</v>
@@ -2187,10 +2190,10 @@
     </row>
     <row r="29" ht="14.25">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>20</v>
@@ -2199,7 +2202,7 @@
         <v>123456</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F29" s="2">
         <v>123456</v>
@@ -2244,10 +2247,10 @@
     </row>
     <row r="30" ht="14.25">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>20</v>
@@ -2256,7 +2259,7 @@
         <v>123456</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F30" s="2">
         <v>123456</v>
@@ -2301,10 +2304,10 @@
     </row>
     <row r="31" ht="14.25">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>20</v>
@@ -2313,7 +2316,7 @@
         <v>123456</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F31" s="2">
         <v>123456</v>
@@ -2358,10 +2361,10 @@
     </row>
     <row r="32" ht="14.25">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>20</v>
@@ -2370,7 +2373,7 @@
         <v>123456</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F32" s="2">
         <v>123456</v>
@@ -2403,10 +2406,10 @@
         <v>27</v>
       </c>
       <c r="P32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
@@ -2415,10 +2418,10 @@
     </row>
     <row r="33" ht="14.25">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>20</v>
@@ -2427,7 +2430,7 @@
         <v>123456</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F33" s="2">
         <v>123456</v>
@@ -2460,10 +2463,10 @@
         <v>27</v>
       </c>
       <c r="P33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
@@ -2472,10 +2475,10 @@
     </row>
     <row r="34" ht="14.25">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>20</v>
@@ -2484,7 +2487,7 @@
         <v>123456</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F34" s="2">
         <v>123456</v>
@@ -2526,7 +2529,7 @@
     </row>
     <row r="35" ht="14.25">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>19</v>
@@ -2580,10 +2583,10 @@
     </row>
     <row r="36" ht="14.25">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>20</v>
@@ -2592,7 +2595,7 @@
         <v>123456</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F36" s="2">
         <v>123456</v>
@@ -2636,10 +2639,10 @@
     </row>
     <row r="37" ht="14.25">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>20</v>
@@ -2648,7 +2651,7 @@
         <v>123456</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F37" s="2">
         <v>123456</v>
@@ -2689,10 +2692,10 @@
     </row>
     <row r="38" ht="14.25">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>20</v>
@@ -2701,7 +2704,7 @@
         <v>123456</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F38" s="2">
         <v>123456</v>
@@ -2746,10 +2749,10 @@
     </row>
     <row r="39" ht="14.25">
       <c r="A39" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>20</v>
@@ -2758,7 +2761,7 @@
         <v>123456</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F39" s="2">
         <v>123456</v>
@@ -2799,10 +2802,10 @@
     </row>
     <row r="40" ht="14.25">
       <c r="A40" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>20</v>
@@ -2811,7 +2814,7 @@
         <v>123456</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F40" s="2">
         <v>123456</v>
@@ -2844,18 +2847,18 @@
         <v>27</v>
       </c>
       <c r="P40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" ht="14.25">
       <c r="A41" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>20</v>
@@ -2864,7 +2867,7 @@
         <v>123456</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F41" s="2">
         <v>123456</v>
@@ -2897,15 +2900,15 @@
         <v>27</v>
       </c>
       <c r="P41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" ht="14.25">
       <c r="A42" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>19</v>
@@ -2950,15 +2953,15 @@
         <v>27</v>
       </c>
       <c r="P42" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q42" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" ht="14.25">
       <c r="A43" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>19</v>
@@ -3003,15 +3006,15 @@
         <v>27</v>
       </c>
       <c r="P43" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" ht="14.25">
       <c r="A44" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>19</v>
@@ -3064,7 +3067,7 @@
     </row>
     <row r="45" ht="14.25">
       <c r="A45" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>19</v>
@@ -3117,10 +3120,10 @@
     </row>
     <row r="46" ht="14.25">
       <c r="A46" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>20</v>
@@ -3129,7 +3132,7 @@
         <v>123456</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F46" s="2">
         <v>123456</v>
@@ -3170,19 +3173,19 @@
     </row>
     <row r="47" ht="14.25">
       <c r="A47" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F47" s="2">
         <v>123456</v>
